--- a/Class_Data/가.xlsx
+++ b/Class_Data/가.xlsx
@@ -2,19 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkdus\OneDrive\바탕 화면\Uipath 예제_202003up\3. 데이터 피벗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\001_ACME\Class_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="348" windowWidth="14952" windowHeight="15252"/>
+    <workbookView xWindow="11295" yWindow="345" windowWidth="14955" windowHeight="15255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="PT" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="34" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>번호</t>
   </si>
@@ -102,6 +106,12 @@
   </si>
   <si>
     <t>만기일</t>
+  </si>
+  <si>
+    <t>총액</t>
+  </si>
+  <si>
+    <t>합계</t>
   </si>
 </sst>
 </file>
@@ -147,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,6 +183,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -188,6 +199,428 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="PCNI" refreshedDate="45378.566460069444" createdVersion="1" refreshedVersion="6" recordCount="30">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G31" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="번호" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
+    </cacheField>
+    <cacheField name="품명" numFmtId="0">
+      <sharedItems count="6">
+        <s v="라이언"/>
+        <s v="프로도"/>
+        <s v="네오"/>
+        <s v="콘"/>
+        <s v="무지"/>
+        <s v="튜브"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="본부" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="WBS번호" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="만기일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15060" maxValue="994284"/>
+    </cacheField>
+    <cacheField name="비고" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="49926"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="408731"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="245111"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="603915"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="440295"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="4"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="799100"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="157906"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="994284"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="353090"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="4"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="711895"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="548275"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="907079"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="4"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="743459"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="4"/>
+    <s v="본사"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="102265"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="461070"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="297449"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="656254"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="15060"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="851439"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="210244"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="46624"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="1"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="405429"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="4"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="764234"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="600613"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="959418"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="318224"/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="154604"/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="513408"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="349788"/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="4"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="708593"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="가" cacheId="34" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" grandTotalCaption="합계" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" rowHeaderCaption="품명">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="7">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="총액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,24 +886,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1071028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>424120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3829546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2922465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3712220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2418403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14377782</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -493,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -515,11 +1032,10 @@
       <c r="G2" s="6"/>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -539,13 +1055,12 @@
         <v>408731</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -565,13 +1080,12 @@
         <v>245111</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -593,11 +1107,10 @@
       <c r="G5" s="6"/>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -617,13 +1130,12 @@
         <v>440295</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -643,13 +1155,12 @@
         <v>799100</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -671,11 +1182,10 @@
       <c r="G8" s="6"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -695,13 +1205,10 @@
         <v>994284</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -721,13 +1228,10 @@
         <v>353090</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -747,13 +1251,10 @@
         <v>711895</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -773,13 +1274,10 @@
         <v>548275</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -799,13 +1297,10 @@
         <v>907079</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -825,13 +1320,10 @@
         <v>743459</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -851,13 +1343,10 @@
         <v>102265</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -877,13 +1366,10 @@
         <v>461070</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -903,13 +1389,10 @@
         <v>297449</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -929,13 +1412,10 @@
         <v>656254</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -961,7 +1441,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -987,7 +1467,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1013,7 +1493,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1039,7 +1519,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1065,7 +1545,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1091,7 +1571,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1117,7 +1597,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1143,7 +1623,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1164,7 +1644,7 @@
       </c>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1185,7 +1665,7 @@
       </c>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1206,7 +1686,7 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1227,7 +1707,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1249,6 +1729,9 @@
       <c r="G31" s="10"/>
     </row>
   </sheetData>
+  <sortState ref="I2:J7">
+    <sortCondition ref="I1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Class_Data/가.xlsx
+++ b/Class_Data/가.xlsx
@@ -12,13 +12,9 @@
     <workbookView xWindow="11295" yWindow="345" windowWidth="14955" windowHeight="15255"/>
   </bookViews>
   <sheets>
-    <sheet name="PT" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>번호</t>
   </si>
@@ -106,12 +102,6 @@
   </si>
   <si>
     <t>만기일</t>
-  </si>
-  <si>
-    <t>총액</t>
-  </si>
-  <si>
-    <t>합계</t>
   </si>
 </sst>
 </file>
@@ -157,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,7 +173,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -199,428 +188,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="PCNI" refreshedDate="45378.566460069444" createdVersion="1" refreshedVersion="6" recordCount="30">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G31" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="번호" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
-    </cacheField>
-    <cacheField name="품명" numFmtId="0">
-      <sharedItems count="6">
-        <s v="라이언"/>
-        <s v="프로도"/>
-        <s v="네오"/>
-        <s v="콘"/>
-        <s v="무지"/>
-        <s v="튜브"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="본부" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="WBS번호" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="만기일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="금액" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15060" maxValue="994284"/>
-    </cacheField>
-    <cacheField name="비고" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="49926"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="408731"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="245111"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="603915"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="440295"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="4"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="799100"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="157906"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="5"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="994284"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="353090"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="4"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="711895"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="3"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="548275"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="5"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="907079"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="4"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="743459"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="4"/>
-    <s v="본사"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="102265"/>
-    <m/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="461070"/>
-    <m/>
-  </r>
-  <r>
-    <n v="16"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="297449"/>
-    <m/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="656254"/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="15060"/>
-    <m/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="5"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="851439"/>
-    <m/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="210244"/>
-    <m/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="46624"/>
-    <m/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="1"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="405429"/>
-    <m/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="4"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="764234"/>
-    <m/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="600613"/>
-    <m/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="5"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="959418"/>
-    <m/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="318224"/>
-    <m/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="154604"/>
-    <m/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="3"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="513408"/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="1"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="349788"/>
-    <m/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="4"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="708593"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="가" cacheId="34" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" grandTotalCaption="합계" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" rowHeaderCaption="품명">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="7">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="176" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="총액" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,93 +453,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1071028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>424120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3829546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2922465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3712220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2418403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>14377782</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
